--- a/プロダクトオーナーレビュー.xlsx
+++ b/プロダクトオーナーレビュー.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\武\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akaoka\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>近藤智之様</t>
     <rPh sb="0" eb="2">
@@ -75,6 +75,82 @@
     <t>簡易性</t>
     <rPh sb="0" eb="3">
       <t>カンイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去問の情報量</t>
+    <rPh sb="0" eb="3">
+      <t>カコモン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使いたいと思うか</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトは適切か</t>
+    <rPh sb="6" eb="8">
+      <t>テキセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直感的な操作ができるか</t>
+    <rPh sb="0" eb="3">
+      <t>チョッカンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twetterの発信情報は適切か</t>
+    <rPh sb="8" eb="10">
+      <t>ハッシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テキセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探したい情報を見つけられたれたか</t>
+    <rPh sb="0" eb="1">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンの配置は適切か</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テキセツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -137,11 +213,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -237,23 +316,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -289,23 +351,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,95 +503,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="K3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K7 B3:F3">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>